--- a/apps/addonsExamples/networkTcpServerExampleMarionette/bin/data/frame.xlsx
+++ b/apps/addonsExamples/networkTcpServerExampleMarionette/bin/data/frame.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="13920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15456" windowHeight="12384" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
   <si>
     <t>a0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,6 +534,9 @@
   <si>
     <t>dc dda de 停很久</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doa</t>
   </si>
 </sst>
 </file>
@@ -548,14 +547,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -564,7 +563,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -573,13 +572,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,6 +588,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,9 +616,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -953,11 +959,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="O2" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" t="s">
@@ -1048,8 +1054,8 @@
         <v>27</v>
       </c>
       <c r="AD1">
-        <f>SUM(AD5,AD10,AD15,AD20,AD25)/60000</f>
-        <v>12.831391666666667</v>
+        <f>SUM(AD20,AD25)/60000</f>
+        <v>2.9923375000000001</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -1295,19 +1301,19 @@
         <v>6534</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:R5" si="1">(Q3-P3)*33*Q4</f>
+        <f>(Q3-P3)*33*Q4</f>
         <v>3762</v>
       </c>
       <c r="R5">
+        <f>(R3-Q3)*33*R4</f>
+        <v>3762</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:AC5" si="1">(S3-R3)*33*S4</f>
+        <v>10197</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="1"/>
-        <v>3762</v>
-      </c>
-      <c r="S5">
-        <f t="shared" ref="S5:AC5" si="2">(S3-R3)*33*S4</f>
-        <v>10197</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="2"/>
         <v>10296</v>
       </c>
       <c r="U5">
@@ -1319,27 +1325,27 @@
         <v>4653</v>
       </c>
       <c r="X5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4653</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3663</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8712</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5643</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4653</v>
       </c>
       <c r="AD5">
@@ -1599,83 +1605,83 @@
         <v>5643</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:W10" si="3">(D8-C8)*33*D9</f>
+        <f t="shared" ref="D10:W10" si="2">(D8-C8)*33*D9</f>
         <v>8415</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10197</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7458</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5643</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4158</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7392</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10032</v>
       </c>
       <c r="K10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4620</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4653</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6534</v>
       </c>
       <c r="N10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4653</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5643</v>
       </c>
       <c r="P10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5544</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7755</v>
       </c>
       <c r="R10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6270</v>
       </c>
       <c r="S10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8497.5</v>
       </c>
       <c r="T10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3267</v>
       </c>
       <c r="U10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3267</v>
       </c>
       <c r="V10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4620</v>
       </c>
       <c r="W10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9966</v>
       </c>
       <c r="X10">
@@ -1963,27 +1969,27 @@
         <v>9306</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:G15" si="4">(B13-A13)*33*B14</f>
+        <f t="shared" ref="B15:G15" si="3">(B13-A13)*33*B14</f>
         <v>6534</v>
       </c>
       <c r="C15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7425</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7458</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9306</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6534</v>
       </c>
       <c r="H15">
@@ -1995,71 +2001,71 @@
         <v>4653</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:Z15" si="5">(J13-I13)*J14*33</f>
+        <f t="shared" ref="J15:Z15" si="4">(J13-I13)*J14*33</f>
         <v>4306.5</v>
       </c>
       <c r="K15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2838</v>
       </c>
       <c r="L15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4785</v>
       </c>
       <c r="M15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3333</v>
       </c>
       <c r="N15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2821.5</v>
       </c>
       <c r="O15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5247</v>
       </c>
       <c r="P15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4752</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3828</v>
       </c>
       <c r="R15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7128</v>
       </c>
       <c r="S15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7227</v>
       </c>
       <c r="T15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6171</v>
       </c>
       <c r="U15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9570</v>
       </c>
       <c r="V15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8514</v>
       </c>
       <c r="W15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8613</v>
       </c>
       <c r="X15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7590</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7656</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5643</v>
       </c>
       <c r="AD15">
@@ -2116,43 +2122,46 @@
       <c r="P17" t="s">
         <v>89</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>91</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>92</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>93</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>94</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>95</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>96</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>98</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>99</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>100</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>101</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>102</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2202,38 +2211,41 @@
       <c r="P18">
         <v>3594</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="2">
+        <v>3670</v>
+      </c>
+      <c r="R18" s="2">
         <v>3767</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>3825</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>3984</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>4128</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>4307</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>4424</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>4493</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>4522</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>4569</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>4616</v>
       </c>
-      <c r="AB18">
-        <v>4699</v>
+      <c r="AC18">
+        <v>4616</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -2282,37 +2294,40 @@
       <c r="P19">
         <v>2.5</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="R19" s="2">
         <v>2</v>
       </c>
-      <c r="R19">
-        <v>3</v>
-      </c>
       <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
         <v>2</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>2.25</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>1.5</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>2</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>2.75</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>4</v>
       </c>
-      <c r="Z19">
-        <v>3</v>
-      </c>
       <c r="AA19">
         <v>3</v>
       </c>
       <c r="AB19">
+        <v>3</v>
+      </c>
+      <c r="AC19">
         <v>2.5</v>
       </c>
     </row>
@@ -2322,15 +2337,15 @@
         <v>8613</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:U20" si="6">(B18-A18)*33*B19</f>
+        <f t="shared" ref="B20:V20" si="5">(B18-A18)*33*B19</f>
         <v>6666</v>
       </c>
       <c r="C20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8613</v>
       </c>
       <c r="D20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7128</v>
       </c>
       <c r="E20">
@@ -2341,83 +2356,83 @@
         <v>8514</v>
       </c>
       <c r="G20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8580</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9570</v>
       </c>
       <c r="I20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7128</v>
       </c>
       <c r="J20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9990.75</v>
       </c>
       <c r="K20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7507.5</v>
       </c>
       <c r="L20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7177.5</v>
       </c>
       <c r="M20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10832.25</v>
       </c>
       <c r="N20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5676</v>
       </c>
       <c r="O20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8332.5</v>
       </c>
       <c r="P20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8332.5</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="6"/>
-        <v>11418</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="6"/>
+      <c r="Q20" s="2">
+        <f t="shared" ref="Q20" si="6">(Q18-P18)*33*Q19</f>
+        <v>6270</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" ref="R20" si="7">(R18-Q18)*33*R19</f>
+        <v>6402</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="5"/>
         <v>5742</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="6"/>
+      <c r="T20">
+        <f t="shared" si="5"/>
         <v>10494</v>
       </c>
-      <c r="T20">
-        <f t="shared" si="6"/>
+      <c r="U20">
+        <f t="shared" si="5"/>
         <v>10692</v>
       </c>
-      <c r="U20">
-        <f t="shared" si="6"/>
+      <c r="V20">
+        <f t="shared" si="5"/>
         <v>8860.5</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>4500</v>
       </c>
-      <c r="W20">
-        <f>(W18-U18)*33*W19</f>
+      <c r="X20">
+        <f>(X18-V18)*33*X19</f>
         <v>7722</v>
-      </c>
-      <c r="X20">
-        <f>(X18-W18)*33*X19</f>
-        <v>6261.75</v>
       </c>
       <c r="Y20">
         <f>(Y18-X18)*33*Y19</f>
-        <v>3828</v>
+        <v>6261.75</v>
       </c>
       <c r="Z20">
         <f>(Z18-Y18)*33*Z19</f>
-        <v>4653</v>
+        <v>3828</v>
       </c>
       <c r="AA20">
         <f>(AA18-Z18)*33*AA19</f>
@@ -2425,11 +2440,15 @@
       </c>
       <c r="AB20">
         <f>(AB18-AA18)*33*AB19</f>
-        <v>6847.5</v>
+        <v>4653</v>
+      </c>
+      <c r="AC20">
+        <f>(AC18-AB18)*33*AC19</f>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <f>SUM(A20:AB20)</f>
-        <v>211860.75</v>
+        <f>SUM(L20:AC20)</f>
+        <v>120429</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2517,46 +2536,41 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25">
-        <f>(A23-AB18)*33*A24</f>
-        <v>8712</v>
+        <f>(A23-AC18)*33*A24</f>
+        <v>11451</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:G25" si="7">(B23-A23)*33*B24</f>
+        <f t="shared" ref="B25:G25" si="8">(B23-A23)*33*B24</f>
         <v>5445</v>
       </c>
       <c r="C25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10593</v>
       </c>
       <c r="D25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7045.5</v>
       </c>
       <c r="E25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4950</v>
       </c>
       <c r="F25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9198.75</v>
       </c>
       <c r="G25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10428</v>
       </c>
       <c r="AD25">
         <f>SUM(A25:AA25)</f>
-        <v>56372.25</v>
+        <v>59111.25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/apps/addonsExamples/networkTcpServerExampleMarionette/bin/data/frame.xlsx
+++ b/apps/addonsExamples/networkTcpServerExampleMarionette/bin/data/frame.xlsx
@@ -10,7 +10,6 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -959,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1993,8 +1992,7 @@
         <v>6534</v>
       </c>
       <c r="H15">
-        <f>H13*H14*33</f>
-        <v>5049</v>
+        <v>10052</v>
       </c>
       <c r="I15">
         <f>(I13-H13)*I14*33</f>
@@ -2070,7 +2068,7 @@
       </c>
       <c r="AD15">
         <f>SUM(A15:Z15)</f>
-        <v>156288</v>
+        <v>161291</v>
       </c>
     </row>
     <row r="17" spans="1:30">
